--- a/data/fakecsv/dept_AMZN.xlsx
+++ b/data/fakecsv/dept_AMZN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="111">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,280 +40,286 @@
     <t>AMZN</t>
   </si>
   <si>
-    <t>5672PAHYX7R0U5CGY</t>
-  </si>
-  <si>
-    <t>EB760KBB7VZ2NWNNN</t>
-  </si>
-  <si>
-    <t>1TH3TE7S6KJ3VZB1C</t>
-  </si>
-  <si>
-    <t>9B4RXWTV9BJUETUWB</t>
-  </si>
-  <si>
-    <t>MKALCD9Z68XL2HRZ8</t>
-  </si>
-  <si>
-    <t>PTZ7PH206J8KFDA4N</t>
-  </si>
-  <si>
-    <t>SF6SRPLD4D4P4WBXK</t>
-  </si>
-  <si>
-    <t>H54M0792550T6SCJT</t>
-  </si>
-  <si>
-    <t>B5HU5DAU0J508TU4D</t>
-  </si>
-  <si>
-    <t>WMSLPWDJ74DHHKM1J</t>
-  </si>
-  <si>
-    <t>E6D8MDF40EEDTN24Y</t>
-  </si>
-  <si>
-    <t>N4JNSV567RFG6XMHN</t>
-  </si>
-  <si>
-    <t>FFNLWNGT61UGB3MH8</t>
-  </si>
-  <si>
-    <t>LN0DSJZ97V1XTUAJX</t>
-  </si>
-  <si>
-    <t>EYB7S7J69HF9HDZVW</t>
-  </si>
-  <si>
-    <t>DBG47TN75MKLNX67K</t>
-  </si>
-  <si>
-    <t>D13L0MBE1SPTMPNZP</t>
-  </si>
-  <si>
-    <t>8Y3THGYMX7MA92WYZ</t>
-  </si>
-  <si>
-    <t>WLZ2A34R6VDPVASRT</t>
-  </si>
-  <si>
-    <t>FWCSRBFE64RACKLKM</t>
-  </si>
-  <si>
-    <t>61SR0S626W9SWN5T0</t>
-  </si>
-  <si>
-    <t>M0RSKB024H02V53G4</t>
-  </si>
-  <si>
-    <t>W69X5HV7178UVVR0A</t>
-  </si>
-  <si>
-    <t>NCJPUMF6XAGWNGM5F</t>
-  </si>
-  <si>
-    <t>F8593CF08B6643ZXN</t>
-  </si>
-  <si>
-    <t>DMBFNN3W5M0JZPAKF</t>
-  </si>
-  <si>
-    <t>AZTVUR6400P8CGCW7</t>
-  </si>
-  <si>
-    <t>V170YYDJ6PBLJ93HD</t>
-  </si>
-  <si>
-    <t>V4NW77MT595VEGZV1</t>
-  </si>
-  <si>
-    <t>34F1WKHNXBXUG2H1T</t>
-  </si>
-  <si>
-    <t>96G5K3MP49KUZTC4Y</t>
-  </si>
-  <si>
-    <t>B2B0P9SV2A79FB1X2</t>
-  </si>
-  <si>
-    <t>LS4ZF43P0YK0PSYYX</t>
-  </si>
-  <si>
-    <t>ELSZP5DU9G2UUT43X</t>
-  </si>
-  <si>
-    <t>YVNB0JMB1AB59MH65</t>
-  </si>
-  <si>
-    <t>AP9TM8796K1XG40CD</t>
-  </si>
-  <si>
-    <t>ZWAZ72TF5W8PF64J8</t>
-  </si>
-  <si>
-    <t>CS2TVGY59PUGTZ1PF</t>
-  </si>
-  <si>
-    <t>JTKU7A8P8XCDDYMVY</t>
-  </si>
-  <si>
-    <t>CXLT72HTXJLK1G2KU</t>
-  </si>
-  <si>
-    <t>EGJXKS1Y6HWLLR6WR</t>
-  </si>
-  <si>
-    <t>151DCX6U4AWKRBDXM</t>
-  </si>
-  <si>
-    <t>2RUBT46J7BNJKAZ0H</t>
-  </si>
-  <si>
-    <t>55J4ST1P35JB2GV5H</t>
-  </si>
-  <si>
-    <t>HKTDL6MF5TYYPXUY0</t>
-  </si>
-  <si>
-    <t>AP7ZZLDL1WZ6NZUF7</t>
-  </si>
-  <si>
-    <t>Carol Perry</t>
-  </si>
-  <si>
-    <t>Thomas Fox</t>
-  </si>
-  <si>
-    <t>Glenn Matthews</t>
-  </si>
-  <si>
-    <t>Kelly Williams</t>
-  </si>
-  <si>
-    <t>Veronica Benson</t>
-  </si>
-  <si>
-    <t>Steven Merritt</t>
-  </si>
-  <si>
-    <t>Joshua Steele</t>
-  </si>
-  <si>
-    <t>Mary Rowland</t>
-  </si>
-  <si>
-    <t>Stephanie Clark</t>
-  </si>
-  <si>
-    <t>Richard Torres</t>
-  </si>
-  <si>
-    <t>Ashley Taylor</t>
-  </si>
-  <si>
-    <t>Scott Odom</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>Debra Hunt</t>
-  </si>
-  <si>
-    <t>Wayne Ward</t>
-  </si>
-  <si>
-    <t>Hannah Mata</t>
-  </si>
-  <si>
-    <t>David Howe</t>
-  </si>
-  <si>
-    <t>Seth Ford</t>
-  </si>
-  <si>
-    <t>David Gonzalez</t>
-  </si>
-  <si>
-    <t>Erik Morrison</t>
-  </si>
-  <si>
-    <t>Matthew Edwards</t>
-  </si>
-  <si>
-    <t>Derrick Jones</t>
-  </si>
-  <si>
-    <t>Amy Petersen</t>
-  </si>
-  <si>
-    <t>Christopher Ford</t>
-  </si>
-  <si>
-    <t>Colton Scott</t>
-  </si>
-  <si>
-    <t>Matthew Anthony</t>
-  </si>
-  <si>
-    <t>Alejandra Figueroa</t>
-  </si>
-  <si>
-    <t>Mr. Rodney Harris</t>
-  </si>
-  <si>
-    <t>Randall Webb</t>
-  </si>
-  <si>
-    <t>Roy Allison</t>
-  </si>
-  <si>
-    <t>Hannah Hobbs</t>
-  </si>
-  <si>
-    <t>Christopher Whitehead</t>
-  </si>
-  <si>
-    <t>Alexandra Shaw</t>
-  </si>
-  <si>
-    <t>Christopher Valencia</t>
-  </si>
-  <si>
-    <t>Ms. Jessica Copeland</t>
-  </si>
-  <si>
-    <t>Charles Cohen</t>
-  </si>
-  <si>
-    <t>Scott Lara</t>
-  </si>
-  <si>
-    <t>Christopher Taylor</t>
-  </si>
-  <si>
-    <t>Adam Pierce</t>
-  </si>
-  <si>
-    <t>Diane Johnson</t>
-  </si>
-  <si>
-    <t>Zachary Sanchez</t>
-  </si>
-  <si>
-    <t>Danielle Rivers</t>
-  </si>
-  <si>
-    <t>Justin Ross</t>
-  </si>
-  <si>
-    <t>Jennifer Clay</t>
-  </si>
-  <si>
-    <t>David Mclean</t>
-  </si>
-  <si>
-    <t>Lisa Brown</t>
+    <t>WGCPKWUJ8GS2SFWR1</t>
+  </si>
+  <si>
+    <t>ZYNBUH1V4LL6CB4LY</t>
+  </si>
+  <si>
+    <t>BBZEFWUE6RC30YV8H</t>
+  </si>
+  <si>
+    <t>M1Y6BBNG5V3F6G8PE</t>
+  </si>
+  <si>
+    <t>E4CLVL5969YCFSKPU</t>
+  </si>
+  <si>
+    <t>TG1M2CGSXR0YRRDGH</t>
+  </si>
+  <si>
+    <t>7SST9BW214X4NFSDK</t>
+  </si>
+  <si>
+    <t>CMRY80G73VZLH4BNR</t>
+  </si>
+  <si>
+    <t>Z623R53U1D11P4N4P</t>
+  </si>
+  <si>
+    <t>JNEES2KK4XYE1NHNA</t>
+  </si>
+  <si>
+    <t>TG2MLWWP6C25YZ4ZB</t>
+  </si>
+  <si>
+    <t>UDJ5EDLG062M5R6UE</t>
+  </si>
+  <si>
+    <t>TE5Z07VY48PADCW8V</t>
+  </si>
+  <si>
+    <t>A6HAKA0X14X2CJAGK</t>
+  </si>
+  <si>
+    <t>YBFP1VC89F5EGCSSC</t>
+  </si>
+  <si>
+    <t>G2F2BUTR6E1A5MKFF</t>
+  </si>
+  <si>
+    <t>MP3ASD052VEUFC7N3</t>
+  </si>
+  <si>
+    <t>9ALTRPTX2BKD8M2ZN</t>
+  </si>
+  <si>
+    <t>7L7JLHYR6CD42JWZ7</t>
+  </si>
+  <si>
+    <t>WAA20SA47ESE6H7EP</t>
+  </si>
+  <si>
+    <t>YH5N4B070P75ERSPX</t>
+  </si>
+  <si>
+    <t>ZMM341TC2DMX3HRWM</t>
+  </si>
+  <si>
+    <t>PKCUVRTWXSXGFEMD3</t>
+  </si>
+  <si>
+    <t>SSUV2K0Y2TRF30EJ5</t>
+  </si>
+  <si>
+    <t>XK4N31UR7TX6435U4</t>
+  </si>
+  <si>
+    <t>2F47H63L3PAUBZB98</t>
+  </si>
+  <si>
+    <t>KDHDBJYA0JYPJ3JGA</t>
+  </si>
+  <si>
+    <t>RM08GB2998LZC014N</t>
+  </si>
+  <si>
+    <t>0MZU63DE7LLM7WHHX</t>
+  </si>
+  <si>
+    <t>B9M0DH580TU8SSDJR</t>
+  </si>
+  <si>
+    <t>YNU4S5ZM65YDN8ZVU</t>
+  </si>
+  <si>
+    <t>DNRZ7P1912THFHCT8</t>
+  </si>
+  <si>
+    <t>3A1WUKPCXKXAH6D05</t>
+  </si>
+  <si>
+    <t>W7EWLTMM9EZLXUSDG</t>
+  </si>
+  <si>
+    <t>AL26FA1X8MB8U2RN4</t>
+  </si>
+  <si>
+    <t>41U8TLYJ6NM1SCWVX</t>
+  </si>
+  <si>
+    <t>F15XCW5C846J2FS7M</t>
+  </si>
+  <si>
+    <t>U0WL79PG6SJWDV4SD</t>
+  </si>
+  <si>
+    <t>ES3MCXGBX49UK7JUB</t>
+  </si>
+  <si>
+    <t>27Y1RTEW1UYGWCE2K</t>
+  </si>
+  <si>
+    <t>W6Z228YK4VV7G1J3T</t>
+  </si>
+  <si>
+    <t>0PYC33SN7PN195MJU</t>
+  </si>
+  <si>
+    <t>9PZDBR6H1ZLP9BEA5</t>
+  </si>
+  <si>
+    <t>7JFUXCT4XW4B3DEPG</t>
+  </si>
+  <si>
+    <t>ZBL0UHRJ1TVNB0XJP</t>
+  </si>
+  <si>
+    <t>3C81YZ4P7H1PRKK5Z</t>
+  </si>
+  <si>
+    <t>ZFD5X0A97C6L4ZN9Z</t>
+  </si>
+  <si>
+    <t>James Carroll</t>
+  </si>
+  <si>
+    <t>Denise Carey</t>
+  </si>
+  <si>
+    <t>Joseph Clark</t>
+  </si>
+  <si>
+    <t>Elizabeth Figueroa</t>
+  </si>
+  <si>
+    <t>Levi Williams</t>
+  </si>
+  <si>
+    <t>Gina Morse</t>
+  </si>
+  <si>
+    <t>Christine Martinez</t>
+  </si>
+  <si>
+    <t>Rebecca Perez</t>
+  </si>
+  <si>
+    <t>Wendy Young</t>
+  </si>
+  <si>
+    <t>David Ball</t>
+  </si>
+  <si>
+    <t>Sydney Mcdonald</t>
+  </si>
+  <si>
+    <t>Dennis Zuniga</t>
+  </si>
+  <si>
+    <t>Morgan Schneider</t>
+  </si>
+  <si>
+    <t>Aaron Hicks</t>
+  </si>
+  <si>
+    <t>John Wallace</t>
+  </si>
+  <si>
+    <t>Shannon Vazquez</t>
+  </si>
+  <si>
+    <t>Elizabeth Watkins</t>
+  </si>
+  <si>
+    <t>Alejandro Mendoza</t>
+  </si>
+  <si>
+    <t>Cynthia Johnson</t>
+  </si>
+  <si>
+    <t>Kaylee Anderson</t>
+  </si>
+  <si>
+    <t>Meghan Ross</t>
+  </si>
+  <si>
+    <t>Melissa Mcdaniel</t>
+  </si>
+  <si>
+    <t>Lisa Ramirez</t>
+  </si>
+  <si>
+    <t>Kimberly Burton</t>
+  </si>
+  <si>
+    <t>Nancy Rubio</t>
+  </si>
+  <si>
+    <t>Christopher Johnston</t>
+  </si>
+  <si>
+    <t>Joseph Bell</t>
+  </si>
+  <si>
+    <t>William Jones</t>
+  </si>
+  <si>
+    <t>Beth Huang</t>
+  </si>
+  <si>
+    <t>Angela Foster</t>
+  </si>
+  <si>
+    <t>Kimberly Davis</t>
+  </si>
+  <si>
+    <t>Ryan Thornton</t>
+  </si>
+  <si>
+    <t>William Morgan</t>
+  </si>
+  <si>
+    <t>Lisa Hall</t>
+  </si>
+  <si>
+    <t>Kara Garza</t>
+  </si>
+  <si>
+    <t>David Wilson</t>
+  </si>
+  <si>
+    <t>Jennifer Tate</t>
+  </si>
+  <si>
+    <t>Jessica Oconnell</t>
+  </si>
+  <si>
+    <t>Amy Marshall</t>
+  </si>
+  <si>
+    <t>Meredith Myers</t>
+  </si>
+  <si>
+    <t>Eric Jackson</t>
+  </si>
+  <si>
+    <t>Robert Hill</t>
+  </si>
+  <si>
+    <t>David Wolfe</t>
+  </si>
+  <si>
+    <t>Jacqueline Norris</t>
+  </si>
+  <si>
+    <t>Edward Mclaughlin</t>
+  </si>
+  <si>
+    <t>Alicia Miller</t>
+  </si>
+  <si>
+    <t>Mitchell Rogers</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -698,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:F246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,10 +741,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -749,13 +755,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -766,13 +772,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -783,13 +789,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -800,13 +806,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -817,13 +823,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -834,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
@@ -851,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
@@ -868,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
@@ -885,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
@@ -905,10 +911,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -919,13 +925,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -936,13 +942,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -953,13 +959,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -970,13 +976,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,13 +993,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,13 +1010,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,13 +1027,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,13 +1044,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,13 +1061,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,13 +1078,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,13 +1095,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,13 +1112,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,13 +1129,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,13 +1146,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,13 +1163,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
         <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,13 +1180,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
         <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,13 +1197,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,13 +1214,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,13 +1231,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,13 +1248,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1276,13 +1282,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
         <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,13 +1299,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1310,13 +1316,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
         <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1327,13 +1333,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1344,13 +1350,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,13 +1367,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1378,13 +1384,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1395,13 +1401,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1412,13 +1418,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1429,13 +1435,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1446,13 +1452,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1463,13 +1469,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1480,13 +1486,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1497,13 +1503,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1514,13 +1520,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1531,13 +1537,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1548,13 +1554,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1565,13 +1571,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1582,13 +1588,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1599,13 +1605,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1616,13 +1622,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1633,10 +1639,10 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
         <v>102</v>
@@ -1650,10 +1656,10 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
         <v>103</v>
@@ -1667,10 +1673,10 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
         <v>104</v>
@@ -1684,10 +1690,10 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
         <v>105</v>
@@ -1701,10 +1707,10 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
         <v>106</v>
@@ -1718,10 +1724,10 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
         <v>107</v>
@@ -1735,13 +1741,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1752,13 +1758,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1769,13 +1775,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1786,13 +1792,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1803,13 +1809,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1820,13 +1826,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1837,13 +1843,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1854,13 +1860,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1871,13 +1877,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1888,13 +1894,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1905,13 +1911,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
         <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1922,13 +1928,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
         <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1939,13 +1945,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
         <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1956,13 +1962,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1973,13 +1979,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1990,13 +1996,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E76" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2007,13 +2013,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2024,10 +2030,10 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
         <v>102</v>
@@ -2041,10 +2047,10 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E79" t="s">
         <v>103</v>
@@ -2058,10 +2064,10 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E80" t="s">
         <v>104</v>
@@ -2075,10 +2081,10 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E81" t="s">
         <v>105</v>
@@ -2092,13 +2098,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2109,13 +2115,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E83" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2126,13 +2132,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E84" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2143,13 +2149,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2160,13 +2166,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2177,13 +2183,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E87" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2194,13 +2200,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E88" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2211,13 +2217,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2228,13 +2234,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E90" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2245,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2262,13 +2268,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2279,13 +2285,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2296,13 +2302,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E94" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2313,13 +2319,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E95" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2330,13 +2336,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E96" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2347,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D97" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E97" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2364,13 +2370,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2381,13 +2387,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
         <v>74</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2398,13 +2404,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" t="s">
         <v>74</v>
       </c>
       <c r="E100" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2415,13 +2421,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
         <v>74</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2432,13 +2438,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E102" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2449,13 +2455,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E103" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2466,7 +2472,7 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D104" t="s">
         <v>75</v>
@@ -2483,7 +2489,7 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D105" t="s">
         <v>75</v>
@@ -2500,7 +2506,7 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D106" t="s">
         <v>75</v>
@@ -2517,13 +2523,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E107" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2534,13 +2540,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2551,13 +2557,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D109" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E109" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2568,13 +2574,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E110" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2585,13 +2591,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
         <v>76</v>
       </c>
       <c r="E111" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2602,13 +2608,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
         <v>76</v>
       </c>
       <c r="E112" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2619,13 +2625,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
         <v>76</v>
       </c>
       <c r="E113" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2636,13 +2642,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
         <v>76</v>
       </c>
       <c r="E114" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2653,13 +2659,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E115" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2670,13 +2676,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E116" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2687,13 +2693,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E117" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2704,13 +2710,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E118" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2721,13 +2727,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E119" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2738,13 +2744,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D120" t="s">
         <v>77</v>
       </c>
       <c r="E120" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2755,13 +2761,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D121" t="s">
         <v>77</v>
       </c>
       <c r="E121" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2772,13 +2778,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D122" t="s">
         <v>77</v>
       </c>
       <c r="E122" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2789,13 +2795,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E123" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2806,13 +2812,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E124" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2823,13 +2829,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E125" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2840,13 +2846,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D126" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E126" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2857,13 +2863,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D127" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E127" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2874,13 +2880,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D128" t="s">
         <v>78</v>
       </c>
       <c r="E128" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2891,13 +2897,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D129" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E129" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2908,13 +2914,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E130" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2925,7 +2931,7 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D131" t="s">
         <v>79</v>
@@ -2942,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D132" t="s">
         <v>79</v>
@@ -2959,7 +2965,7 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D133" t="s">
         <v>79</v>
@@ -2976,7 +2982,7 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D134" t="s">
         <v>79</v>
@@ -2993,13 +2999,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D135" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E135" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3010,13 +3016,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D136" t="s">
         <v>80</v>
       </c>
       <c r="E136" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3027,13 +3033,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D137" t="s">
         <v>80</v>
       </c>
       <c r="E137" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3044,13 +3050,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D138" t="s">
         <v>80</v>
       </c>
       <c r="E138" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3061,13 +3067,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D139" t="s">
         <v>80</v>
       </c>
       <c r="E139" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3078,13 +3084,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D140" t="s">
         <v>80</v>
       </c>
       <c r="E140" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3095,13 +3101,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D141" t="s">
         <v>80</v>
       </c>
       <c r="E141" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3115,10 +3121,10 @@
         <v>34</v>
       </c>
       <c r="D142" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E142" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3129,13 +3135,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D143" t="s">
         <v>81</v>
       </c>
       <c r="E143" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3146,13 +3152,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D144" t="s">
         <v>81</v>
       </c>
       <c r="E144" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3163,13 +3169,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D145" t="s">
         <v>81</v>
       </c>
       <c r="E145" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3180,13 +3186,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D146" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E146" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3197,13 +3203,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D147" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E147" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3214,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D148" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E148" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3231,13 +3237,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D149" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E149" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3248,13 +3254,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D150" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E150" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3265,13 +3271,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D151" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E151" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3282,13 +3288,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D152" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E152" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3299,13 +3305,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D153" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E153" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3316,13 +3322,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D154" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3333,13 +3339,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D155" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E155" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3350,13 +3356,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D156" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E156" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3367,13 +3373,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D157" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E157" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3384,13 +3390,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D158" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E158" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3401,10 +3407,10 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D159" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E159" t="s">
         <v>102</v>
@@ -3418,10 +3424,10 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D160" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E160" t="s">
         <v>103</v>
@@ -3435,10 +3441,10 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D161" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E161" t="s">
         <v>104</v>
@@ -3452,10 +3458,10 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D162" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E162" t="s">
         <v>105</v>
@@ -3469,10 +3475,10 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D163" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E163" t="s">
         <v>106</v>
@@ -3486,10 +3492,10 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D164" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E164" t="s">
         <v>107</v>
@@ -3503,13 +3509,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D165" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E165" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3520,13 +3526,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D166" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E166" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3537,13 +3543,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D167" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E167" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3554,13 +3560,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D168" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E168" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3571,13 +3577,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D169" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E169" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3588,13 +3594,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D170" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E170" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3605,13 +3611,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D171" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E171" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3622,13 +3628,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D172" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E172" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3639,13 +3645,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D173" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E173" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3656,13 +3662,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D174" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E174" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3673,13 +3679,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D175" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E175" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3690,13 +3696,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D176" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E176" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3707,13 +3713,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D177" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E177" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3724,13 +3730,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D178" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E178" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3741,13 +3747,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D179" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E179" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3758,13 +3764,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D180" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E180" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3775,13 +3781,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E181" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3792,13 +3798,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D182" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E182" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3809,13 +3815,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D183" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E183" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3826,13 +3832,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D184" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E184" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3843,13 +3849,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D185" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E185" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3860,13 +3866,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D186" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E186" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3877,13 +3883,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D187" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E187" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3894,13 +3900,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D188" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E188" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3911,13 +3917,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D189" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E189" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3928,13 +3934,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D190" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E190" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3945,13 +3951,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D191" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E191" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3962,13 +3968,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D192" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E192" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3979,13 +3985,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D193" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E193" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3996,13 +4002,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D194" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E194" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4013,13 +4019,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D195" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E195" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4030,13 +4036,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D196" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E196" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4047,13 +4053,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D197" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E197" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4064,13 +4070,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D198" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E198" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4081,13 +4087,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D199" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E199" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4098,13 +4104,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D200" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E200" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4115,13 +4121,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D201" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E201" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4132,13 +4138,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D202" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E202" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4149,13 +4155,13 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D203" t="s">
         <v>92</v>
       </c>
       <c r="E203" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4166,13 +4172,13 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D204" t="s">
         <v>92</v>
       </c>
       <c r="E204" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4183,13 +4189,13 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D205" t="s">
         <v>92</v>
       </c>
       <c r="E205" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4200,13 +4206,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D206" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E206" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4217,13 +4223,13 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D207" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E207" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4234,13 +4240,13 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D208" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E208" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4251,13 +4257,13 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D209" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E209" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4268,13 +4274,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D210" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E210" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4285,13 +4291,13 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D211" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E211" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4302,13 +4308,13 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D212" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E212" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4319,13 +4325,13 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D213" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E213" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4336,13 +4342,13 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D214" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E214" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4353,13 +4359,13 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D215" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E215" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4370,13 +4376,13 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D216" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E216" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4387,13 +4393,13 @@
         <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D217" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E217" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4404,13 +4410,13 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D218" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E218" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4421,13 +4427,13 @@
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D219" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E219" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4438,13 +4444,13 @@
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D220" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E220" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4455,13 +4461,13 @@
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D221" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E221" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4472,13 +4478,13 @@
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D222" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E222" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4489,13 +4495,13 @@
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E223" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4506,13 +4512,13 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D224" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E224" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4523,13 +4529,13 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D225" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E225" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4540,13 +4546,13 @@
         <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D226" t="s">
         <v>97</v>
       </c>
       <c r="E226" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4557,13 +4563,13 @@
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D227" t="s">
         <v>98</v>
       </c>
       <c r="E227" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4574,13 +4580,13 @@
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D228" t="s">
         <v>98</v>
       </c>
       <c r="E228" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4591,13 +4597,13 @@
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D229" t="s">
         <v>98</v>
       </c>
       <c r="E229" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4608,13 +4614,13 @@
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D230" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E230" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4625,13 +4631,13 @@
         <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D231" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E231" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4642,13 +4648,13 @@
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D232" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E232" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4659,13 +4665,13 @@
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D233" t="s">
         <v>99</v>
       </c>
       <c r="E233" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4676,13 +4682,13 @@
         <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D234" t="s">
         <v>99</v>
       </c>
       <c r="E234" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4696,10 +4702,10 @@
         <v>53</v>
       </c>
       <c r="D235" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E235" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4713,10 +4719,10 @@
         <v>53</v>
       </c>
       <c r="D236" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E236" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4730,10 +4736,10 @@
         <v>53</v>
       </c>
       <c r="D237" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E237" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4747,10 +4753,146 @@
         <v>53</v>
       </c>
       <c r="D238" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E238" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>54</v>
+      </c>
+      <c r="D239" t="s">
+        <v>101</v>
+      </c>
+      <c r="E239" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>54</v>
+      </c>
+      <c r="D240" t="s">
+        <v>101</v>
+      </c>
+      <c r="E240" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>54</v>
+      </c>
+      <c r="D241" t="s">
+        <v>101</v>
+      </c>
+      <c r="E241" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" t="s">
+        <v>54</v>
+      </c>
+      <c r="D242" t="s">
+        <v>101</v>
+      </c>
+      <c r="E242" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" t="s">
+        <v>54</v>
+      </c>
+      <c r="D243" t="s">
+        <v>101</v>
+      </c>
+      <c r="E243" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" t="s">
+        <v>54</v>
+      </c>
+      <c r="D244" t="s">
+        <v>101</v>
+      </c>
+      <c r="E244" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" t="s">
+        <v>54</v>
+      </c>
+      <c r="D245" t="s">
+        <v>101</v>
+      </c>
+      <c r="E245" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>54</v>
+      </c>
+      <c r="D246" t="s">
+        <v>101</v>
+      </c>
+      <c r="E246" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
